--- a/kpi-client/kpi_formula/sales_analysis.xlsx
+++ b/kpi-client/kpi_formula/sales_analysis.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-04</t>
+          <t>2024-11-07</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -506,7 +506,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-03</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -539,7 +539,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-02</t>
+          <t>2024-11-05</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -572,7 +572,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -605,7 +605,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -638,7 +638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-02</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-10-29</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -704,7 +704,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-10-28</t>
+          <t>2024-10-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -737,7 +737,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-10-27</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -770,7 +770,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-10-26</t>
+          <t>2024-10-29</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -803,7 +803,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-10-25</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-10-24</t>
+          <t>2024-10-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -869,7 +869,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-10-23</t>
+          <t>2024-10-26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -902,7 +902,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-10-25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -935,7 +935,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-10-21</t>
+          <t>2024-10-24</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -968,7 +968,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-10-20</t>
+          <t>2024-10-23</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1001,7 +1001,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-10-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1034,7 +1034,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-10-18</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1067,7 +1067,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-10-17</t>
+          <t>2024-10-20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
